--- a/BOILERS/rkurs/acronym.xlsx
+++ b/BOILERS/rkurs/acronym.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kocha\source\repos\itmo-viud\BOILERS\rkurs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/24bdfc58212c86b1/DATA/YAYA/rkurs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB107E7-59C0-438B-BC4A-7FA164CB3813}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_335BA6AD92A3AB24EC2EAF07076E4D0D62421654" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1065" yWindow="5715" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -601,7 +601,7 @@
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
